--- a/test/color_sensor_calibration.xlsx
+++ b/test/color_sensor_calibration.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\arqui1\practica2\ACE1-231S0778BG07PRA2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C33C58-816F-4EDE-999D-46E54161A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E66ADD-C649-4D28-BD42-76D3905AC2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{423C162A-02BB-41E4-91AD-334F8C79EF7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{423C162A-02BB-41E4-91AD-334F8C79EF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>RED</t>
   </si>
@@ -73,6 +72,15 @@
   </si>
   <si>
     <t>Dia2</t>
+  </si>
+  <si>
+    <t>Dia 3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
@@ -424,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47610B20-4E28-4CEB-B6AA-F0B953702156}">
-  <dimension ref="A2:Z23"/>
+  <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,40 +530,40 @@
         <v>6</v>
       </c>
       <c r="P4">
-        <f>AVERAGE(C4:C23)</f>
-        <v>136.85</v>
+        <f>AVERAGE(C4:C33)</f>
+        <v>133.43333333333334</v>
       </c>
       <c r="Q4">
-        <f>AVERAGE(D4:D23)</f>
-        <v>198</v>
+        <f t="shared" ref="Q4:Z4" si="0">AVERAGE(D4:D33)</f>
+        <v>186.93333333333334</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="Q4:Z4" si="0">AVERAGE(E4:E23)</f>
-        <v>274</v>
+        <f t="shared" si="0"/>
+        <v>255.3</v>
       </c>
       <c r="T4">
-        <f>AVERAGE(G4:G23)</f>
-        <v>217.6</v>
+        <f t="shared" si="0"/>
+        <v>217.43333333333334</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>365.7</v>
+        <v>364.06666666666666</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>308.3</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>208.65</v>
+        <v>207.2</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>193.55</v>
+        <v>206</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>119.25</v>
+        <v>115.83333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -584,7 +592,7 @@
         <v>211</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="M5">
         <v>125</v>
@@ -593,40 +601,40 @@
         <v>7</v>
       </c>
       <c r="P5">
-        <f>_xlfn.STDEV.S(C4:C23)</f>
-        <v>17.484654926384341</v>
+        <f>_xlfn.STDEV.S(C4:C33)</f>
+        <v>16.085297063131801</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Z5" si="1">_xlfn.STDEV.S(D4:D23)</f>
-        <v>19.197039245401196</v>
+        <f t="shared" ref="Q5:Z5" si="1">_xlfn.STDEV.S(D4:D33)</f>
+        <v>22.306537364535163</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>26.409727075653894</v>
+        <v>39.061534125989773</v>
       </c>
       <c r="T5">
         <f t="shared" si="1"/>
-        <v>32.301865678560922</v>
+        <v>27.576455891579524</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>39.439627413634696</v>
+        <v>44.46380421261177</v>
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>35.062350478150087</v>
+        <v>39.496966273722592</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>26.166018541531916</v>
+        <v>22.096028664866957</v>
       </c>
       <c r="Y5">
         <f t="shared" si="1"/>
-        <v>62.262157975687536</v>
+        <v>20.995894508377027</v>
       </c>
       <c r="Z5">
         <f t="shared" si="1"/>
-        <v>13.054037487951462</v>
+        <v>12.242051139084278</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -697,39 +705,39 @@
       </c>
       <c r="P7">
         <f>P4-1.7*P5</f>
-        <v>107.12608662514661</v>
+        <v>106.08832832600928</v>
       </c>
       <c r="Q7">
         <f t="shared" ref="Q7:Z7" si="2">Q4-1.7*Q5</f>
-        <v>165.36503328281796</v>
+        <v>149.01221981362357</v>
       </c>
       <c r="R7">
         <f t="shared" si="2"/>
-        <v>229.10346397138838</v>
+        <v>188.89539198581741</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>162.68682834644642</v>
+        <v>170.55335831764813</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>298.65263339682099</v>
+        <v>288.47819950522666</v>
       </c>
       <c r="V7">
         <f t="shared" si="2"/>
-        <v>246.39400418714484</v>
+        <v>241.15515733467163</v>
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>164.16776847939576</v>
+        <v>169.63675126972618</v>
       </c>
       <c r="Y7">
         <f t="shared" si="2"/>
-        <v>87.704331441331206</v>
+        <v>170.30697933575905</v>
       </c>
       <c r="Z7">
         <f t="shared" si="2"/>
-        <v>97.058136270482521</v>
+        <v>95.021846396890055</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -768,39 +776,39 @@
       </c>
       <c r="P8">
         <f>1.7*P5+P4</f>
-        <v>166.57391337485336</v>
+        <v>160.7783383406574</v>
       </c>
       <c r="Q8">
         <f t="shared" ref="Q8:Z8" si="3">1.7*Q5+Q4</f>
-        <v>230.63496671718204</v>
+        <v>224.8544468530431</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>318.89653602861165</v>
+        <v>321.70460801418261</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>272.51317165355357</v>
+        <v>264.31330834901854</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>432.74736660317899</v>
+        <v>439.65513382810667</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>365.60599581285516</v>
+        <v>375.44484266532839</v>
       </c>
       <c r="X8">
         <f t="shared" si="3"/>
-        <v>253.13223152060425</v>
+        <v>244.7632487302738</v>
       </c>
       <c r="Y8">
         <f t="shared" si="3"/>
-        <v>299.39566855866883</v>
+        <v>241.69302066424095</v>
       </c>
       <c r="Z8">
         <f t="shared" si="3"/>
-        <v>141.44186372951748</v>
+        <v>136.6448202697766</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -866,6 +874,45 @@
       <c r="M10">
         <v>129</v>
       </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <f>MIN(C4:C33)</f>
+        <v>105</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Z10" si="4">MIN(D4:D33)</f>
+        <v>160</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -898,6 +945,45 @@
       <c r="M11">
         <v>124</v>
       </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <f>MAX(C4:C33)</f>
+        <v>177</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Z11" si="5">MAX(D4:D33)</f>
+        <v>225</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>426</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -1056,13 +1142,13 @@
         <v>210</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="M16">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
@@ -1094,7 +1180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
@@ -1126,7 +1212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
@@ -1158,7 +1244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7</v>
       </c>
@@ -1190,7 +1276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
@@ -1222,7 +1308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>9</v>
       </c>
@@ -1254,7 +1340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
       </c>
@@ -1284,6 +1370,329 @@
       </c>
       <c r="M23">
         <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>115</v>
+      </c>
+      <c r="D24">
+        <v>163</v>
+      </c>
+      <c r="E24">
+        <v>242</v>
+      </c>
+      <c r="G24">
+        <v>234</v>
+      </c>
+      <c r="H24">
+        <v>424</v>
+      </c>
+      <c r="I24">
+        <v>374</v>
+      </c>
+      <c r="K24">
+        <v>207</v>
+      </c>
+      <c r="L24">
+        <v>195</v>
+      </c>
+      <c r="M24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <v>247</v>
+      </c>
+      <c r="G25">
+        <v>237</v>
+      </c>
+      <c r="H25">
+        <v>426</v>
+      </c>
+      <c r="I25">
+        <v>370</v>
+      </c>
+      <c r="K25">
+        <v>203</v>
+      </c>
+      <c r="L25">
+        <v>194</v>
+      </c>
+      <c r="M25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>121</v>
+      </c>
+      <c r="D26">
+        <v>169</v>
+      </c>
+      <c r="E26">
+        <v>243</v>
+      </c>
+      <c r="G26">
+        <v>234</v>
+      </c>
+      <c r="H26">
+        <v>424</v>
+      </c>
+      <c r="I26">
+        <v>363</v>
+      </c>
+      <c r="K26">
+        <v>195</v>
+      </c>
+      <c r="L26">
+        <v>180</v>
+      </c>
+      <c r="M26">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>116</v>
+      </c>
+      <c r="D27">
+        <v>168</v>
+      </c>
+      <c r="E27">
+        <v>237</v>
+      </c>
+      <c r="G27">
+        <v>228</v>
+      </c>
+      <c r="H27">
+        <v>426</v>
+      </c>
+      <c r="I27">
+        <v>369</v>
+      </c>
+      <c r="K27">
+        <v>192</v>
+      </c>
+      <c r="L27">
+        <v>181</v>
+      </c>
+      <c r="M27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <v>166</v>
+      </c>
+      <c r="E28">
+        <v>183</v>
+      </c>
+      <c r="G28">
+        <v>222</v>
+      </c>
+      <c r="H28">
+        <v>326</v>
+      </c>
+      <c r="I28">
+        <v>283</v>
+      </c>
+      <c r="K28">
+        <v>228</v>
+      </c>
+      <c r="L28">
+        <v>208</v>
+      </c>
+      <c r="M28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>182</v>
+      </c>
+      <c r="G29">
+        <v>208</v>
+      </c>
+      <c r="H29">
+        <v>317</v>
+      </c>
+      <c r="I29">
+        <v>280</v>
+      </c>
+      <c r="K29">
+        <v>212</v>
+      </c>
+      <c r="L29">
+        <v>213</v>
+      </c>
+      <c r="M29">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>161</v>
+      </c>
+      <c r="E30">
+        <v>171</v>
+      </c>
+      <c r="G30">
+        <v>207</v>
+      </c>
+      <c r="H30">
+        <v>320</v>
+      </c>
+      <c r="I30">
+        <v>279</v>
+      </c>
+      <c r="K30">
+        <v>206</v>
+      </c>
+      <c r="L30">
+        <v>183</v>
+      </c>
+      <c r="M30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>139</v>
+      </c>
+      <c r="D31">
+        <v>160</v>
+      </c>
+      <c r="E31">
+        <v>182</v>
+      </c>
+      <c r="G31">
+        <v>196</v>
+      </c>
+      <c r="H31">
+        <v>314</v>
+      </c>
+      <c r="I31">
+        <v>278</v>
+      </c>
+      <c r="K31">
+        <v>192</v>
+      </c>
+      <c r="L31">
+        <v>182</v>
+      </c>
+      <c r="M31">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>165</v>
+      </c>
+      <c r="E32">
+        <v>249</v>
+      </c>
+      <c r="G32">
+        <v>208</v>
+      </c>
+      <c r="H32">
+        <v>320</v>
+      </c>
+      <c r="I32">
+        <v>278</v>
+      </c>
+      <c r="K32">
+        <v>205</v>
+      </c>
+      <c r="L32">
+        <v>191</v>
+      </c>
+      <c r="M32">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>166</v>
+      </c>
+      <c r="E33">
+        <v>243</v>
+      </c>
+      <c r="G33">
+        <v>197</v>
+      </c>
+      <c r="H33">
+        <v>311</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="K33">
+        <v>203</v>
+      </c>
+      <c r="L33">
+        <v>186</v>
+      </c>
+      <c r="M33">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
